--- a/通信中级单词.xlsx
+++ b/通信中级单词.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>3GPP</t>
   </si>
@@ -123,19 +123,157 @@
     <t>FSK</t>
   </si>
   <si>
+    <t>Frequency Shift Keying</t>
+  </si>
+  <si>
     <t>FTTx</t>
   </si>
   <si>
+    <t>Fiber to The x</t>
+  </si>
+  <si>
     <t>GEO</t>
   </si>
   <si>
+    <t>Grosynchronous Earth Orbit</t>
+  </si>
+  <si>
     <t>GPON</t>
   </si>
   <si>
+    <t>Gigabit Passive Optical Network</t>
+  </si>
+  <si>
     <t>GSM</t>
   </si>
   <si>
+    <t>Global System for Mobile Communication</t>
+  </si>
+  <si>
     <t>HFC</t>
+  </si>
+  <si>
+    <t>Hybrid Fiber Coax</t>
+  </si>
+  <si>
+    <t>HSS</t>
+  </si>
+  <si>
+    <t>Home Subscriber Server</t>
+  </si>
+  <si>
+    <t>ICMP</t>
+  </si>
+  <si>
+    <t>Internet Control Message Protocol</t>
+  </si>
+  <si>
+    <t>ICP</t>
+  </si>
+  <si>
+    <t>Internet Content Provider</t>
+  </si>
+  <si>
+    <t>IDC</t>
+  </si>
+  <si>
+    <t>Internet Data Center</t>
+  </si>
+  <si>
+    <t>IETF</t>
+  </si>
+  <si>
+    <t>Internet Engineering Task Force</t>
+  </si>
+  <si>
+    <t>IGMP</t>
+  </si>
+  <si>
+    <t>Internet Group Management Protocol</t>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>IP Multimedia Subsystem</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>Internet of Things</t>
+  </si>
+  <si>
+    <t>IPSec</t>
+  </si>
+  <si>
+    <t>Internet Protocol Security</t>
+  </si>
+  <si>
+    <t>IP-VPN</t>
+  </si>
+  <si>
+    <t>IP-Virtual Private Network</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>International Organization for Standardization</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>Internet Service Provider</t>
+  </si>
+  <si>
+    <t>ITU</t>
+  </si>
+  <si>
+    <t>International Telecommunication Union</t>
+  </si>
+  <si>
+    <t>LCAS</t>
+  </si>
+  <si>
+    <t>Link Capacity Adjustment Scheme</t>
+  </si>
+  <si>
+    <t>LEO</t>
+  </si>
+  <si>
+    <t>Low Earth Orbit(satellite)</t>
+  </si>
+  <si>
+    <t>LMDS</t>
+  </si>
+  <si>
+    <t>Local Multipoint Distribution Services</t>
+  </si>
+  <si>
+    <t>LSP</t>
+  </si>
+  <si>
+    <t>Label Switching Path</t>
+  </si>
+  <si>
+    <t>M2M</t>
+  </si>
+  <si>
+    <t>Machine to Machine</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>Media Access Control</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Metropolitan Area Network</t>
   </si>
 </sst>
 </file>
@@ -143,12 +281,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,9 +296,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,28 +339,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +386,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -215,9 +401,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,63 +417,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,13 +438,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,187 +448,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +639,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,11 +675,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,39 +725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -613,148 +744,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,13 +1241,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="52.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1288,34 +1422,212 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
